--- a/file_name_list_wReaon/民事案由判決書數量統計.xlsx
+++ b/file_name_list_wReaon/民事案由判決書數量統計.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50576</v>
+        <v>1011147</v>
       </c>
     </row>
     <row r="3" spans="1:3">
